--- a/sample_data/test_doc.xlsx
+++ b/sample_data/test_doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wv492f\Documents\VSCode_Projects\cross-checker\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\cross-checker\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9F40E-B8A1-4BCE-84F3-66E0FAB99DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E034749D-3B1A-4382-B558-57A6C79CCE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39C8E638-C7C7-407E-B117-7F3298F6CE42}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="14586" xr2:uid="{39C8E638-C7C7-407E-B117-7F3298F6CE42}"/>
   </bookViews>
   <sheets>
     <sheet name="737MAX EDFCS Requirements_Valid" sheetId="1" r:id="rId1"/>
@@ -480,61 +480,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EDFCS-SRO465</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>EDFCS-SRO465
 EDFCS-SRO510
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EDFCS-SRO595</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+EDFCS-SRO595
 EDFCS-SRO646
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EDFCS-SRO658</t>
-    </r>
+EDFCS-SRO658</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1114,9 +1064,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,56 +1456,56 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1171875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.1171875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.41015625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.41015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.41015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.29296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1171875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.703125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.41015625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.29296875" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.41015625" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.29296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="49.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.41015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.1171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="56.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.1171875" style="5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="30" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="72.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="72.29296875" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="52" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="47.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="5"/>
+    <col min="43" max="44" width="34.41015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="47.41015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.1171875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1698,11 +1645,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:46" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1816,5 +1763,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>